--- a/output/riclpm_democracy_inequality.xlsx
+++ b/output/riclpm_democracy_inequality.xlsx
@@ -8,6 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="ACEPTACION DESIGUALDAD" sheetId="1" r:id="rId1"/>
+    <sheet name="HAY GRUPOS INFERIORES" sheetId="2" r:id="rId2"/>
+    <sheet name="JUST DIST PENSIONES" sheetId="3" r:id="rId3"/>
+    <sheet name="JUST DIST EDUC" sheetId="4" r:id="rId4"/>
+    <sheet name="JUST DIST SALUD" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -351,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -672,39 +676,39 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>cy5</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>cy4</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>cy3</t>
-        </is>
-      </c>
       <c r="F7">
-        <v>0.3701170803919653</v>
+        <v>0.1670930738248082</v>
       </c>
       <c r="G7">
-        <v>0.05661272759309147</v>
+        <v>0.02632076978416431</v>
       </c>
       <c r="H7">
-        <v>6.53770090450705</v>
+        <v>6.348335371457808</v>
       </c>
       <c r="I7">
-        <v>6.247180550644771E-11</v>
+        <v>2.176572255763176E-10</v>
       </c>
       <c r="J7">
-        <v>0.2114920769514423</v>
+        <v>0.2650039015971851</v>
       </c>
       <c r="K7">
-        <v>0.9591357150291975</v>
+        <v>0.9297478000720137</v>
       </c>
       <c r="L7">
-        <v>0.03047516347839634</v>
+        <v>0.03650531720281396</v>
       </c>
     </row>
     <row r="8">
@@ -720,7 +724,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>cy6</t>
+          <t>cx5</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -734,25 +738,25 @@
         </is>
       </c>
       <c r="F8">
-        <v>0.144043880341849</v>
+        <v>0.1259606143813509</v>
       </c>
       <c r="G8">
-        <v>0.02257466375112114</v>
+        <v>0.02130726328893729</v>
       </c>
       <c r="H8">
-        <v>6.380776339789128</v>
+        <v>5.911628005589511</v>
       </c>
       <c r="I8">
-        <v>1.761923940080123E-10</v>
+        <v>3.387428559875616E-09</v>
       </c>
       <c r="J8">
-        <v>0.2493341497132566</v>
+        <v>0.1164957332621933</v>
       </c>
       <c r="K8">
-        <v>0.9591357150291975</v>
+        <v>0.9297478000720137</v>
       </c>
       <c r="L8">
-        <v>0.03047516347839634</v>
+        <v>0.03650531720281396</v>
       </c>
     </row>
     <row r="9">
@@ -768,7 +772,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>cy2</t>
+          <t>cy4</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -778,29 +782,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>cy1</t>
+          <t>cy3</t>
         </is>
       </c>
       <c r="F9">
-        <v>0.1400366582330894</v>
+        <v>0.3019989760910707</v>
       </c>
       <c r="G9">
-        <v>0.03684349422994717</v>
+        <v>0.05339911472405965</v>
       </c>
       <c r="H9">
-        <v>3.800851715070625</v>
+        <v>5.655505295390248</v>
       </c>
       <c r="I9">
-        <v>0.0001441995806277241</v>
+        <v>1.553884376725989E-08</v>
       </c>
       <c r="J9">
-        <v>0.1779064599902258</v>
+        <v>0.1772021182060116</v>
       </c>
       <c r="K9">
-        <v>0.9591357150291975</v>
+        <v>0.9297478000720137</v>
       </c>
       <c r="L9">
-        <v>0.03047516347839634</v>
+        <v>0.03650531720281396</v>
       </c>
     </row>
     <row r="10">
@@ -816,7 +820,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>cy3</t>
+          <t>cy2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -826,29 +830,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>cy2</t>
+          <t>cy1</t>
         </is>
       </c>
       <c r="F10">
-        <v>0.1954629046959306</v>
+        <v>0.1501797038860496</v>
       </c>
       <c r="G10">
-        <v>0.05411631721682233</v>
+        <v>0.03468093682371824</v>
       </c>
       <c r="H10">
-        <v>3.611903299198822</v>
+        <v>4.330324311866395</v>
       </c>
       <c r="I10">
-        <v>0.0003039579171557616</v>
+        <v>1.488898966250929E-05</v>
       </c>
       <c r="J10">
-        <v>0.1959294471467669</v>
+        <v>0.188201293435692</v>
       </c>
       <c r="K10">
-        <v>0.9591357150291975</v>
+        <v>0.9297478000720137</v>
       </c>
       <c r="L10">
-        <v>0.03047516347839634</v>
+        <v>0.03650531720281396</v>
       </c>
     </row>
     <row r="11">
@@ -864,7 +868,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>cy4</t>
+          <t>cy3</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -874,29 +878,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>cx3</t>
+          <t>cy2</t>
         </is>
       </c>
       <c r="F11">
-        <v>0.06247855724761395</v>
+        <v>0.2082447906147173</v>
       </c>
       <c r="G11">
-        <v>0.01979410978017155</v>
+        <v>0.04946103415041292</v>
       </c>
       <c r="H11">
-        <v>3.156421680059637</v>
+        <v>4.210279752369043</v>
       </c>
       <c r="I11">
-        <v>0.00159717773950363</v>
+        <v>2.55054665272425E-05</v>
       </c>
       <c r="J11">
-        <v>0.05756981613848455</v>
+        <v>0.2112156435703521</v>
       </c>
       <c r="K11">
-        <v>0.9591357150291975</v>
+        <v>0.9297478000720137</v>
       </c>
       <c r="L11">
-        <v>0.03047516347839634</v>
+        <v>0.03650531720281396</v>
       </c>
     </row>
     <row r="12">
@@ -912,7 +916,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>cy7</t>
+          <t>cy4</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -922,29 +926,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>cy6</t>
+          <t>cx3</t>
         </is>
       </c>
       <c r="F12">
-        <v>0.1439489582011201</v>
+        <v>0.06088152874951629</v>
       </c>
       <c r="G12">
-        <v>0.05146228910292854</v>
+        <v>0.01961072241958698</v>
       </c>
       <c r="H12">
-        <v>2.797173633555458</v>
+        <v>3.104502090586346</v>
       </c>
       <c r="I12">
-        <v>0.005155182050245122</v>
+        <v>0.001905995807681249</v>
       </c>
       <c r="J12">
-        <v>0.1707352954673405</v>
+        <v>0.05697302116258606</v>
       </c>
       <c r="K12">
-        <v>0.9591357150291975</v>
+        <v>0.9297478000720137</v>
       </c>
       <c r="L12">
-        <v>0.03047516347839634</v>
+        <v>0.03650531720281396</v>
       </c>
     </row>
     <row r="13">
@@ -960,7 +964,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>cx3</t>
+          <t>cy6</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -970,29 +974,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>cx2</t>
+          <t>cx5</t>
         </is>
       </c>
       <c r="F13">
-        <v>0.05882202240882956</v>
+        <v>0.02407518265517746</v>
       </c>
       <c r="G13">
-        <v>0.02480506114791892</v>
+        <v>0.01123807191008187</v>
       </c>
       <c r="H13">
-        <v>2.371371796185416</v>
+        <v>2.142287649323475</v>
       </c>
       <c r="I13">
-        <v>0.01772219376130768</v>
+        <v>0.03217034207882308</v>
       </c>
       <c r="J13">
-        <v>0.06448489343142683</v>
+        <v>0.04520479733163494</v>
       </c>
       <c r="K13">
-        <v>0.9591357150291975</v>
+        <v>0.9297478000720137</v>
       </c>
       <c r="L13">
-        <v>0.03047516347839634</v>
+        <v>0.03650531720281396</v>
       </c>
     </row>
     <row r="14">
@@ -1008,7 +1012,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>cx7</t>
+          <t>cy7</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1022,31 +1026,31 @@
         </is>
       </c>
       <c r="F14">
-        <v>0.06607163762200208</v>
+        <v>0.1140655734260736</v>
       </c>
       <c r="G14">
-        <v>0.03229094667452133</v>
+        <v>0.05331412833212824</v>
       </c>
       <c r="H14">
-        <v>2.046135044846328</v>
+        <v>2.139499922337381</v>
       </c>
       <c r="I14">
-        <v>0.04074308588902542</v>
+        <v>0.03239520220535574</v>
       </c>
       <c r="J14">
-        <v>0.04422481435261856</v>
+        <v>0.1339637970121897</v>
       </c>
       <c r="K14">
-        <v>0.9591357150291975</v>
+        <v>0.9297478000720137</v>
       </c>
       <c r="L14">
-        <v>0.03047516347839634</v>
+        <v>0.03650531720281396</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>c08_02</t>
+          <t>c08_03</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1056,7 +1060,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>cx7</t>
+          <t>cy4</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1066,29 +1070,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>cx6</t>
+          <t>cy3</t>
         </is>
       </c>
       <c r="F15">
-        <v>0.04800367481493612</v>
+        <v>0.2271408636786499</v>
       </c>
       <c r="G15">
-        <v>0.02432924084154393</v>
+        <v>0.04691926918837565</v>
       </c>
       <c r="H15">
-        <v>1.97308560211901</v>
+        <v>4.841099778572947</v>
       </c>
       <c r="I15">
-        <v>0.048485810363881</v>
+        <v>1.291225142585617E-06</v>
       </c>
       <c r="J15">
-        <v>0.0494041545160143</v>
+        <v>0.195189086790897</v>
       </c>
       <c r="K15">
-        <v>0.9591357150291975</v>
+        <v>0.9007308690143232</v>
       </c>
       <c r="L15">
-        <v>0.03047516347839634</v>
+        <v>0.03704027268973734</v>
       </c>
     </row>
     <row r="16">
@@ -1104,7 +1108,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>cy4</t>
+          <t>cy2</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1114,23 +1118,23 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>cy3</t>
+          <t>cy1</t>
         </is>
       </c>
       <c r="F16">
-        <v>0.2271408636786499</v>
+        <v>0.1227744785285408</v>
       </c>
       <c r="G16">
-        <v>0.04691926918837565</v>
+        <v>0.03113130803155261</v>
       </c>
       <c r="H16">
-        <v>4.841099778572947</v>
+        <v>3.943762285995335</v>
       </c>
       <c r="I16">
-        <v>1.291225142585617E-06</v>
+        <v>8.021317168038777E-05</v>
       </c>
       <c r="J16">
-        <v>0.195189086790897</v>
+        <v>0.159517998140335</v>
       </c>
       <c r="K16">
         <v>0.9007308690143232</v>
@@ -1152,33 +1156,33 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>cy2</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>cy1</t>
-        </is>
-      </c>
       <c r="F17">
-        <v>0.1227744785285408</v>
+        <v>0.1810202239047847</v>
       </c>
       <c r="G17">
-        <v>0.03113130803155261</v>
+        <v>0.05576896908972349</v>
       </c>
       <c r="H17">
-        <v>3.943762285995335</v>
+        <v>3.24589510725134</v>
       </c>
       <c r="I17">
-        <v>8.021317168038777E-05</v>
+        <v>0.001170819699325198</v>
       </c>
       <c r="J17">
-        <v>0.159517998140335</v>
+        <v>0.1859368100100585</v>
       </c>
       <c r="K17">
         <v>0.9007308690143232</v>
@@ -1200,7 +1204,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>cy3</t>
+          <t>cx3</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1210,23 +1214,23 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>cy2</t>
+          <t>cx2</t>
         </is>
       </c>
       <c r="F18">
-        <v>0.1810202239047847</v>
+        <v>0.05774186900449137</v>
       </c>
       <c r="G18">
-        <v>0.05576896908972349</v>
+        <v>0.02470883160762252</v>
       </c>
       <c r="H18">
-        <v>3.24589510725134</v>
+        <v>2.33689192275196</v>
       </c>
       <c r="I18">
-        <v>0.001170819699325198</v>
+        <v>0.01944480444686869</v>
       </c>
       <c r="J18">
-        <v>0.1859368100100585</v>
+        <v>0.06328757230971943</v>
       </c>
       <c r="K18">
         <v>0.9007308690143232</v>
@@ -1238,7 +1242,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>c08_03</t>
+          <t>c08_04</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1248,7 +1252,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>cx3</t>
+          <t>cy5</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1258,29 +1262,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>cx2</t>
+          <t>cy4</t>
         </is>
       </c>
       <c r="F19">
-        <v>0.05774186900449137</v>
+        <v>0.2517851048826037</v>
       </c>
       <c r="G19">
-        <v>0.02470883160762252</v>
+        <v>0.02610676672624842</v>
       </c>
       <c r="H19">
-        <v>2.33689192275196</v>
+        <v>9.644438452405232</v>
       </c>
       <c r="I19">
-        <v>0.01944480444686869</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.06328757230971943</v>
+        <v>0.2747965179316156</v>
       </c>
       <c r="K19">
-        <v>0.9007308690143232</v>
+        <v>0.978439976846401</v>
       </c>
       <c r="L19">
-        <v>0.03704027268973734</v>
+        <v>0.0246184131132958</v>
       </c>
     </row>
     <row r="20">
@@ -1310,25 +1314,25 @@
         </is>
       </c>
       <c r="F20">
-        <v>0.2366764043024781</v>
+        <v>0.1913276412171257</v>
       </c>
       <c r="G20">
-        <v>0.03717019233660804</v>
+        <v>0.03500985786747919</v>
       </c>
       <c r="H20">
-        <v>6.367370987999466</v>
+        <v>5.464964809093121</v>
       </c>
       <c r="I20">
-        <v>1.922957348909904E-10</v>
+        <v>4.629986460891189E-08</v>
       </c>
       <c r="J20">
-        <v>0.1833696100676199</v>
+        <v>0.1503176502511931</v>
       </c>
       <c r="K20">
-        <v>0.9852178640452262</v>
+        <v>0.978439976846401</v>
       </c>
       <c r="L20">
-        <v>0.0216835808691546</v>
+        <v>0.0246184131132958</v>
       </c>
     </row>
     <row r="21">
@@ -1354,29 +1358,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>cy4</t>
+          <t>cy5</t>
         </is>
       </c>
       <c r="F21">
-        <v>0.1391190011619478</v>
+        <v>0.1336962519010126</v>
       </c>
       <c r="G21">
-        <v>0.02658968193719666</v>
+        <v>0.03166627265806155</v>
       </c>
       <c r="H21">
-        <v>5.232067141327192</v>
+        <v>4.222039434343609</v>
       </c>
       <c r="I21">
-        <v>1.676248386761614E-07</v>
+        <v>2.421017390941138E-05</v>
       </c>
       <c r="J21">
-        <v>0.1669401284892159</v>
+        <v>0.1472747353067771</v>
       </c>
       <c r="K21">
-        <v>0.9852178640452262</v>
+        <v>0.978439976846401</v>
       </c>
       <c r="L21">
-        <v>0.0216835808691546</v>
+        <v>0.0246184131132958</v>
       </c>
     </row>
     <row r="22">
@@ -1406,25 +1410,25 @@
         </is>
       </c>
       <c r="F22">
-        <v>0.1834753253584423</v>
+        <v>0.1439289359116061</v>
       </c>
       <c r="G22">
-        <v>0.03569506319436281</v>
+        <v>0.0370034692652997</v>
       </c>
       <c r="H22">
-        <v>5.140075655823966</v>
+        <v>3.88960653607084</v>
       </c>
       <c r="I22">
-        <v>2.746278688903203E-07</v>
+        <v>0.0001004068830576799</v>
       </c>
       <c r="J22">
-        <v>0.1853692647811746</v>
+        <v>0.1445712472193648</v>
       </c>
       <c r="K22">
-        <v>0.9852178640452262</v>
+        <v>0.978439976846401</v>
       </c>
       <c r="L22">
-        <v>0.0216835808691546</v>
+        <v>0.0246184131132958</v>
       </c>
     </row>
     <row r="23">
@@ -1454,25 +1458,25 @@
         </is>
       </c>
       <c r="F23">
-        <v>0.1321423651391714</v>
+        <v>0.1266965948893773</v>
       </c>
       <c r="G23">
-        <v>0.03829588987143456</v>
+        <v>0.03565457634219716</v>
       </c>
       <c r="H23">
-        <v>3.450562595171297</v>
+        <v>3.55344552893851</v>
       </c>
       <c r="I23">
-        <v>0.0005594194226470339</v>
+        <v>0.000380219929236425</v>
       </c>
       <c r="J23">
-        <v>0.1412445565893909</v>
+        <v>0.1370717678834464</v>
       </c>
       <c r="K23">
-        <v>0.9852178640452262</v>
+        <v>0.978439976846401</v>
       </c>
       <c r="L23">
-        <v>0.0216835808691546</v>
+        <v>0.0246184131132958</v>
       </c>
     </row>
     <row r="24">
@@ -1488,7 +1492,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>cy2</t>
+          <t>cx5</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1498,29 +1502,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>cx1</t>
+          <t>cy4</t>
         </is>
       </c>
       <c r="F24">
-        <v>-0.05241387596889827</v>
+        <v>0.0747301232831017</v>
       </c>
       <c r="G24">
-        <v>0.02201447888042911</v>
+        <v>0.02139749870089148</v>
       </c>
       <c r="H24">
-        <v>-2.380881975611708</v>
+        <v>3.492470046510073</v>
       </c>
       <c r="I24">
-        <v>0.01727124456381457</v>
+        <v>0.0004785752675882105</v>
       </c>
       <c r="J24">
-        <v>-0.05502653859445378</v>
+        <v>0.0765536171268171</v>
       </c>
       <c r="K24">
-        <v>0.9852178640452262</v>
+        <v>0.978439976846401</v>
       </c>
       <c r="L24">
-        <v>0.0216835808691546</v>
+        <v>0.0246184131132958</v>
       </c>
     </row>
     <row r="25">
@@ -1536,7 +1540,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>cx3</t>
+          <t>cy2</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1546,29 +1550,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>cx2</t>
+          <t>cx1</t>
         </is>
       </c>
       <c r="F25">
-        <v>0.05553851479969223</v>
+        <v>-0.05253078912524502</v>
       </c>
       <c r="G25">
-        <v>0.02474130659917667</v>
+        <v>0.02181669696888104</v>
       </c>
       <c r="H25">
-        <v>2.244768867685444</v>
+        <v>-2.407825034200825</v>
       </c>
       <c r="I25">
-        <v>0.02478297434050458</v>
+        <v>0.01604786992298868</v>
       </c>
       <c r="J25">
-        <v>0.0609196369558376</v>
+        <v>-0.05488490884799795</v>
       </c>
       <c r="K25">
-        <v>0.9852178640452262</v>
+        <v>0.978439976846401</v>
       </c>
       <c r="L25">
-        <v>0.0216835808691546</v>
+        <v>0.0246184131132958</v>
       </c>
     </row>
     <row r="26">
@@ -1598,25 +1602,6565 @@
         </is>
       </c>
       <c r="F26">
-        <v>0.06965646714083515</v>
+        <v>0.07161514537343545</v>
       </c>
       <c r="G26">
-        <v>0.03241157841992701</v>
+        <v>0.03127087308600907</v>
       </c>
       <c r="H26">
-        <v>2.149122953481635</v>
+        <v>2.290154968697591</v>
       </c>
       <c r="I26">
-        <v>0.03162465467492903</v>
+        <v>0.02201233481247078</v>
       </c>
       <c r="J26">
-        <v>0.0780449438296245</v>
+        <v>0.08005364396839167</v>
       </c>
       <c r="K26">
-        <v>0.9852178640452262</v>
+        <v>0.978439976846401</v>
       </c>
       <c r="L26">
-        <v>0.0216835808691546</v>
+        <v>0.0246184131132958</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>c09_01</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>c18_11</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>cx6</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>cx3</t>
+        </is>
+      </c>
+      <c r="F27">
+        <v>0.08457347935310421</v>
+      </c>
+      <c r="G27">
+        <v>0.03522669868324956</v>
+      </c>
+      <c r="H27">
+        <v>2.400834665591847</v>
+      </c>
+      <c r="I27">
+        <v>0.01635772538442493</v>
+      </c>
+      <c r="J27">
+        <v>0.08746195158612376</v>
+      </c>
+      <c r="K27">
+        <v>0.9955902533463293</v>
+      </c>
+      <c r="L27">
+        <v>0.0275340719440756</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>c09_02</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>c18_11</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>cx6</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>cx3</t>
+        </is>
+      </c>
+      <c r="F28">
+        <v>0.09429736935043474</v>
+      </c>
+      <c r="G28">
+        <v>0.03513146466490204</v>
+      </c>
+      <c r="H28">
+        <v>2.68412860806917</v>
+      </c>
+      <c r="I28">
+        <v>0.007271912702465411</v>
+      </c>
+      <c r="J28">
+        <v>0.09760702491939481</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>c09_02</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>c18_11</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>cx3</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>cx1</t>
+        </is>
+      </c>
+      <c r="F29">
+        <v>0.07345835325286998</v>
+      </c>
+      <c r="G29">
+        <v>0.03428262677609323</v>
+      </c>
+      <c r="H29">
+        <v>2.142728260953903</v>
+      </c>
+      <c r="I29">
+        <v>0.03213492471022095</v>
+      </c>
+      <c r="J29">
+        <v>0.07586662321333977</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>c09_03</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>c18_11</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>cy6</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="F30">
+        <v>0.1305124694246306</v>
+      </c>
+      <c r="G30">
+        <v>0.05186400205681189</v>
+      </c>
+      <c r="H30">
+        <v>2.516436531096599</v>
+      </c>
+      <c r="I30">
+        <v>0.01185482498870649</v>
+      </c>
+      <c r="J30">
+        <v>0.1386350676156838</v>
+      </c>
+      <c r="K30">
+        <v>0.9999474378712084</v>
+      </c>
+      <c r="L30">
+        <v>0.003299601023303502</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>c09_03</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>c18_11</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>cx6</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>cx3</t>
+        </is>
+      </c>
+      <c r="F31">
+        <v>0.08468858790650363</v>
+      </c>
+      <c r="G31">
+        <v>0.03509604392772749</v>
+      </c>
+      <c r="H31">
+        <v>2.413052254006206</v>
+      </c>
+      <c r="I31">
+        <v>0.0158195513907935</v>
+      </c>
+      <c r="J31">
+        <v>0.087646834097314</v>
+      </c>
+      <c r="K31">
+        <v>0.9999474378712084</v>
+      </c>
+      <c r="L31">
+        <v>0.003299601023303502</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>c09_03</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>c18_11</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>cy1</t>
+        </is>
+      </c>
+      <c r="F32">
+        <v>0.1053381754843952</v>
+      </c>
+      <c r="G32">
+        <v>0.04663005911387721</v>
+      </c>
+      <c r="H32">
+        <v>2.259018699228849</v>
+      </c>
+      <c r="I32">
+        <v>0.02388222172913546</v>
+      </c>
+      <c r="J32">
+        <v>0.1166095592310096</v>
+      </c>
+      <c r="K32">
+        <v>0.9999474378712084</v>
+      </c>
+      <c r="L32">
+        <v>0.003299601023303502</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>c09_03</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>c18_11</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>cx3</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>cx1</t>
+        </is>
+      </c>
+      <c r="F33">
+        <v>0.06784738351231634</v>
+      </c>
+      <c r="G33">
+        <v>0.03419402543220595</v>
+      </c>
+      <c r="H33">
+        <v>1.984188250863663</v>
+      </c>
+      <c r="I33">
+        <v>0.04723485783865389</v>
+      </c>
+      <c r="J33">
+        <v>0.0700562242883094</v>
+      </c>
+      <c r="K33">
+        <v>0.9999474378712084</v>
+      </c>
+      <c r="L33">
+        <v>0.003299601023303502</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>c09_04</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>c18_11</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>cx6</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>cx3</t>
+        </is>
+      </c>
+      <c r="F34">
+        <v>0.0879692193405943</v>
+      </c>
+      <c r="G34">
+        <v>0.03530098292398475</v>
+      </c>
+      <c r="H34">
+        <v>2.491976484904755</v>
+      </c>
+      <c r="I34">
+        <v>0.01270344475174379</v>
+      </c>
+      <c r="J34">
+        <v>0.09109068661292447</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>c09_04</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>c18_11</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>cy6</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="F35">
+        <v>0.1110670493520479</v>
+      </c>
+      <c r="G35">
+        <v>0.0529674872418592</v>
+      </c>
+      <c r="H35">
+        <v>2.096891038929136</v>
+      </c>
+      <c r="I35">
+        <v>0.03600322197638262</v>
+      </c>
+      <c r="J35">
+        <v>0.1136701807429097</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>c09_04</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>c18_11</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>cx3</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>cx1</t>
+        </is>
+      </c>
+      <c r="F36">
+        <v>0.06941564636469523</v>
+      </c>
+      <c r="G36">
+        <v>0.03434409896671382</v>
+      </c>
+      <c r="H36">
+        <v>2.021181176771376</v>
+      </c>
+      <c r="I36">
+        <v>0.0432610135085163</v>
+      </c>
+      <c r="J36">
+        <v>0.07171583665970141</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>vary</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>varx</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lhs</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>op</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>rhs</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>est</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>se</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>z</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>pvalue</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>std.all</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CFI</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>RMSEA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>c08_01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="F2">
+        <v>0.1534028861185514</v>
+      </c>
+      <c r="G2">
+        <v>0.03327121375399808</v>
+      </c>
+      <c r="H2">
+        <v>4.610678986729707</v>
+      </c>
+      <c r="I2">
+        <v>4.013559038895664E-06</v>
+      </c>
+      <c r="J2">
+        <v>0.16078358586741</v>
+      </c>
+      <c r="K2">
+        <v>0.9961539211619912</v>
+      </c>
+      <c r="L2">
+        <v>0.01424012763102529</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>c08_01</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>cx4</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>cx3</t>
+        </is>
+      </c>
+      <c r="F3">
+        <v>0.1030589003480416</v>
+      </c>
+      <c r="G3">
+        <v>0.0246197566343394</v>
+      </c>
+      <c r="H3">
+        <v>4.186024333168918</v>
+      </c>
+      <c r="I3">
+        <v>2.838829287443723E-05</v>
+      </c>
+      <c r="J3">
+        <v>0.1032651324879028</v>
+      </c>
+      <c r="K3">
+        <v>0.9961539211619912</v>
+      </c>
+      <c r="L3">
+        <v>0.01424012763102529</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>c08_01</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>cy2</t>
+        </is>
+      </c>
+      <c r="F4">
+        <v>0.1205145218734807</v>
+      </c>
+      <c r="G4">
+        <v>0.0318060956913235</v>
+      </c>
+      <c r="H4">
+        <v>3.789038524032244</v>
+      </c>
+      <c r="I4">
+        <v>0.0001512314628517863</v>
+      </c>
+      <c r="J4">
+        <v>0.1342070566970901</v>
+      </c>
+      <c r="K4">
+        <v>0.9961539211619912</v>
+      </c>
+      <c r="L4">
+        <v>0.01424012763102529</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>c08_01</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>cx7</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="F5">
+        <v>-0.1342737238380019</v>
+      </c>
+      <c r="G5">
+        <v>0.04148387126338405</v>
+      </c>
+      <c r="H5">
+        <v>-3.236769369606046</v>
+      </c>
+      <c r="I5">
+        <v>0.001208910709708633</v>
+      </c>
+      <c r="J5">
+        <v>-0.09073635688951182</v>
+      </c>
+      <c r="K5">
+        <v>0.9961539211619912</v>
+      </c>
+      <c r="L5">
+        <v>0.01424012763102529</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>c08_01</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>cx4</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="F6">
+        <v>-0.09452938422887514</v>
+      </c>
+      <c r="G6">
+        <v>0.03138962616564916</v>
+      </c>
+      <c r="H6">
+        <v>-3.011484868600383</v>
+      </c>
+      <c r="I6">
+        <v>0.002599733593654507</v>
+      </c>
+      <c r="J6">
+        <v>-0.06618918811681672</v>
+      </c>
+      <c r="K6">
+        <v>0.9961539211619912</v>
+      </c>
+      <c r="L6">
+        <v>0.01424012763102529</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>c08_01</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>cy7</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>cx4</t>
+        </is>
+      </c>
+      <c r="F7">
+        <v>0.04618819493895645</v>
+      </c>
+      <c r="G7">
+        <v>0.01864047092749037</v>
+      </c>
+      <c r="H7">
+        <v>2.477844852666227</v>
+      </c>
+      <c r="I7">
+        <v>0.0132178606992337</v>
+      </c>
+      <c r="J7">
+        <v>0.06843882862426914</v>
+      </c>
+      <c r="K7">
+        <v>0.9961539211619912</v>
+      </c>
+      <c r="L7">
+        <v>0.01424012763102529</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="F8">
+        <v>0.4461051532551395</v>
+      </c>
+      <c r="G8">
+        <v>0.05373942379970759</v>
+      </c>
+      <c r="H8">
+        <v>8.301264169072965</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0.2594926704969148</v>
+      </c>
+      <c r="K8">
+        <v>0.9650176850518281</v>
+      </c>
+      <c r="L8">
+        <v>0.03883321583813593</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>cy5</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="F9">
+        <v>0.2059611904450248</v>
+      </c>
+      <c r="G9">
+        <v>0.02471031956339662</v>
+      </c>
+      <c r="H9">
+        <v>8.335027392770547</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0.3318211453509285</v>
+      </c>
+      <c r="K9">
+        <v>0.9650176850518281</v>
+      </c>
+      <c r="L9">
+        <v>0.03883321583813593</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>cx7</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>cx5</t>
+        </is>
+      </c>
+      <c r="F10">
+        <v>0.1693801794793649</v>
+      </c>
+      <c r="G10">
+        <v>0.02318753817779745</v>
+      </c>
+      <c r="H10">
+        <v>7.304793556805866</v>
+      </c>
+      <c r="I10">
+        <v>2.777778007612142E-13</v>
+      </c>
+      <c r="J10">
+        <v>0.1838683930227068</v>
+      </c>
+      <c r="K10">
+        <v>0.9650176850518281</v>
+      </c>
+      <c r="L10">
+        <v>0.03883321583813593</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>cy2</t>
+        </is>
+      </c>
+      <c r="F11">
+        <v>0.2590026584329854</v>
+      </c>
+      <c r="G11">
+        <v>0.05088102043447921</v>
+      </c>
+      <c r="H11">
+        <v>5.090358963348814</v>
+      </c>
+      <c r="I11">
+        <v>3.573863081030026E-07</v>
+      </c>
+      <c r="J11">
+        <v>0.2593513365743108</v>
+      </c>
+      <c r="K11">
+        <v>0.9650176850518281</v>
+      </c>
+      <c r="L11">
+        <v>0.03883321583813593</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>cx5</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="F12">
+        <v>-0.1228531878385535</v>
+      </c>
+      <c r="G12">
+        <v>0.02850152677544449</v>
+      </c>
+      <c r="H12">
+        <v>-4.310407256652573</v>
+      </c>
+      <c r="I12">
+        <v>1.629541610315144E-05</v>
+      </c>
+      <c r="J12">
+        <v>-0.1042349208628606</v>
+      </c>
+      <c r="K12">
+        <v>0.9650176850518281</v>
+      </c>
+      <c r="L12">
+        <v>0.03883321583813593</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>cx4</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>cx3</t>
+        </is>
+      </c>
+      <c r="F13">
+        <v>0.09146533674847564</v>
+      </c>
+      <c r="G13">
+        <v>0.02269923302262961</v>
+      </c>
+      <c r="H13">
+        <v>4.029446134029763</v>
+      </c>
+      <c r="I13">
+        <v>5.590842469938018E-05</v>
+      </c>
+      <c r="J13">
+        <v>0.09193310139609807</v>
+      </c>
+      <c r="K13">
+        <v>0.9650176850518281</v>
+      </c>
+      <c r="L13">
+        <v>0.03883321583813593</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>cx5</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>cx4</t>
+        </is>
+      </c>
+      <c r="F14">
+        <v>0.08281296057385536</v>
+      </c>
+      <c r="G14">
+        <v>0.02602645956265173</v>
+      </c>
+      <c r="H14">
+        <v>3.181875751271714</v>
+      </c>
+      <c r="I14">
+        <v>0.001463245773463795</v>
+      </c>
+      <c r="J14">
+        <v>0.07726822529518816</v>
+      </c>
+      <c r="K14">
+        <v>0.9650176850518281</v>
+      </c>
+      <c r="L14">
+        <v>0.03883321583813593</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>cx3</t>
+        </is>
+      </c>
+      <c r="F15">
+        <v>-0.04768855812656449</v>
+      </c>
+      <c r="G15">
+        <v>0.01702830908442444</v>
+      </c>
+      <c r="H15">
+        <v>-2.80054572007884</v>
+      </c>
+      <c r="I15">
+        <v>0.005101628016650483</v>
+      </c>
+      <c r="J15">
+        <v>-0.05271150073187074</v>
+      </c>
+      <c r="K15">
+        <v>0.9650176850518281</v>
+      </c>
+      <c r="L15">
+        <v>0.03883321583813593</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>cx4</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="F16">
+        <v>-0.1115501784239512</v>
+      </c>
+      <c r="G16">
+        <v>0.0411550695695726</v>
+      </c>
+      <c r="H16">
+        <v>-2.710484506298203</v>
+      </c>
+      <c r="I16">
+        <v>0.006718498736362433</v>
+      </c>
+      <c r="J16">
+        <v>-0.05900411612303619</v>
+      </c>
+      <c r="K16">
+        <v>0.9650176850518281</v>
+      </c>
+      <c r="L16">
+        <v>0.03883321583813593</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>c08_03</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="F17">
+        <v>0.2962910805175903</v>
+      </c>
+      <c r="G17">
+        <v>0.05669909580267517</v>
+      </c>
+      <c r="H17">
+        <v>5.225675583059489</v>
+      </c>
+      <c r="I17">
+        <v>1.735203678521202E-07</v>
+      </c>
+      <c r="J17">
+        <v>0.2459595070239455</v>
+      </c>
+      <c r="K17">
+        <v>0.9592658324927993</v>
+      </c>
+      <c r="L17">
+        <v>0.04492399736841637</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>c08_03</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>cx4</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>cx3</t>
+        </is>
+      </c>
+      <c r="F18">
+        <v>0.09798204095010579</v>
+      </c>
+      <c r="G18">
+        <v>0.02505126405935135</v>
+      </c>
+      <c r="H18">
+        <v>3.911261352639418</v>
+      </c>
+      <c r="I18">
+        <v>9.181535126012719E-05</v>
+      </c>
+      <c r="J18">
+        <v>0.09792298237581727</v>
+      </c>
+      <c r="K18">
+        <v>0.9592658324927993</v>
+      </c>
+      <c r="L18">
+        <v>0.04492399736841637</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>c08_03</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>cy2</t>
+        </is>
+      </c>
+      <c r="F19">
+        <v>0.1800049703750719</v>
+      </c>
+      <c r="G19">
+        <v>0.06268878856777722</v>
+      </c>
+      <c r="H19">
+        <v>2.871406107656012</v>
+      </c>
+      <c r="I19">
+        <v>0.004086501597467818</v>
+      </c>
+      <c r="J19">
+        <v>0.180262650733756</v>
+      </c>
+      <c r="K19">
+        <v>0.9592658324927993</v>
+      </c>
+      <c r="L19">
+        <v>0.04492399736841637</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>c08_03</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>cy7</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="F20">
+        <v>0.1111659100139138</v>
+      </c>
+      <c r="G20">
+        <v>0.04041331298351915</v>
+      </c>
+      <c r="H20">
+        <v>2.750724991520692</v>
+      </c>
+      <c r="I20">
+        <v>0.005946354095271333</v>
+      </c>
+      <c r="J20">
+        <v>0.1968598175145457</v>
+      </c>
+      <c r="K20">
+        <v>0.9592658324927993</v>
+      </c>
+      <c r="L20">
+        <v>0.04492399736841637</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>c08_03</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>cx7</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="F21">
+        <v>-0.1147056655900918</v>
+      </c>
+      <c r="G21">
+        <v>0.04567177934199701</v>
+      </c>
+      <c r="H21">
+        <v>-2.511521715218469</v>
+      </c>
+      <c r="I21">
+        <v>0.01202118897171833</v>
+      </c>
+      <c r="J21">
+        <v>-0.06576614650260487</v>
+      </c>
+      <c r="K21">
+        <v>0.9592658324927993</v>
+      </c>
+      <c r="L21">
+        <v>0.04492399736841637</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>cy5</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="F22">
+        <v>0.2918206275178906</v>
+      </c>
+      <c r="G22">
+        <v>0.02743112902672103</v>
+      </c>
+      <c r="H22">
+        <v>10.63830173499692</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0.3179947622022404</v>
+      </c>
+      <c r="K22">
+        <v>0.9899004113384984</v>
+      </c>
+      <c r="L22">
+        <v>0.02540612088667017</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>cx7</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>cx5</t>
+        </is>
+      </c>
+      <c r="F23">
+        <v>0.1621671359449853</v>
+      </c>
+      <c r="G23">
+        <v>0.02306037817795688</v>
+      </c>
+      <c r="H23">
+        <v>7.032284323073189</v>
+      </c>
+      <c r="I23">
+        <v>2.031708135064036E-12</v>
+      </c>
+      <c r="J23">
+        <v>0.1769425662183659</v>
+      </c>
+      <c r="K23">
+        <v>0.9899004113384984</v>
+      </c>
+      <c r="L23">
+        <v>0.02540612088667017</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="F24">
+        <v>0.2472731157478087</v>
+      </c>
+      <c r="G24">
+        <v>0.04106459184780938</v>
+      </c>
+      <c r="H24">
+        <v>6.021565164076985</v>
+      </c>
+      <c r="I24">
+        <v>1.727384457694825E-09</v>
+      </c>
+      <c r="J24">
+        <v>0.1879931891603664</v>
+      </c>
+      <c r="K24">
+        <v>0.9899004113384984</v>
+      </c>
+      <c r="L24">
+        <v>0.02540612088667017</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>cy7</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>cy5</t>
+        </is>
+      </c>
+      <c r="F25">
+        <v>0.1393613620927987</v>
+      </c>
+      <c r="G25">
+        <v>0.03107125492172963</v>
+      </c>
+      <c r="H25">
+        <v>4.485218329412778</v>
+      </c>
+      <c r="I25">
+        <v>7.283931138690747E-06</v>
+      </c>
+      <c r="J25">
+        <v>0.1570986523178536</v>
+      </c>
+      <c r="K25">
+        <v>0.9899004113384984</v>
+      </c>
+      <c r="L25">
+        <v>0.02540612088667017</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>cx4</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>cx3</t>
+        </is>
+      </c>
+      <c r="F26">
+        <v>0.09018651818293191</v>
+      </c>
+      <c r="G26">
+        <v>0.02273753757945503</v>
+      </c>
+      <c r="H26">
+        <v>3.966415354687387</v>
+      </c>
+      <c r="I26">
+        <v>7.296167038450818E-05</v>
+      </c>
+      <c r="J26">
+        <v>0.09038475364982285</v>
+      </c>
+      <c r="K26">
+        <v>0.9899004113384984</v>
+      </c>
+      <c r="L26">
+        <v>0.02540612088667017</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>cx5</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="F27">
+        <v>-0.1015483862898845</v>
+      </c>
+      <c r="G27">
+        <v>0.02791212340061969</v>
+      </c>
+      <c r="H27">
+        <v>-3.638146221710598</v>
+      </c>
+      <c r="I27">
+        <v>0.0002746075119359759</v>
+      </c>
+      <c r="J27">
+        <v>-0.09388999188995893</v>
+      </c>
+      <c r="K27">
+        <v>0.9899004113384984</v>
+      </c>
+      <c r="L27">
+        <v>0.02540612088667017</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>cx5</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>cx4</t>
+        </is>
+      </c>
+      <c r="F28">
+        <v>0.0867217129350922</v>
+      </c>
+      <c r="G28">
+        <v>0.02585643676106927</v>
+      </c>
+      <c r="H28">
+        <v>3.353969989618396</v>
+      </c>
+      <c r="I28">
+        <v>0.0007966100203906645</v>
+      </c>
+      <c r="J28">
+        <v>0.08092510039051783</v>
+      </c>
+      <c r="K28">
+        <v>0.9899004113384984</v>
+      </c>
+      <c r="L28">
+        <v>0.02540612088667017</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>cy2</t>
+        </is>
+      </c>
+      <c r="F29">
+        <v>0.1079689322534403</v>
+      </c>
+      <c r="G29">
+        <v>0.04179647503550901</v>
+      </c>
+      <c r="H29">
+        <v>2.583206649884067</v>
+      </c>
+      <c r="I29">
+        <v>0.009788667177110799</v>
+      </c>
+      <c r="J29">
+        <v>0.1133567605620504</v>
+      </c>
+      <c r="K29">
+        <v>0.9899004113384984</v>
+      </c>
+      <c r="L29">
+        <v>0.02540612088667017</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>vary</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>varx</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lhs</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>op</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>rhs</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>est</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>se</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>z</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>pvalue</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>std.all</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CFI</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>RMSEA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>c08_01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>d02_01</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="F2">
+        <v>0.165635296940905</v>
+      </c>
+      <c r="G2">
+        <v>0.02846965511324</v>
+      </c>
+      <c r="H2">
+        <v>5.817959377522462</v>
+      </c>
+      <c r="I2">
+        <v>5.957037307879887E-09</v>
+      </c>
+      <c r="J2">
+        <v>0.1724719236193129</v>
+      </c>
+      <c r="K2">
+        <v>0.9859046236746742</v>
+      </c>
+      <c r="L2">
+        <v>0.01755643323087713</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>c08_01</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>d02_01</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>cx7</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>cx6</t>
+        </is>
+      </c>
+      <c r="F3">
+        <v>0.1347755151637723</v>
+      </c>
+      <c r="G3">
+        <v>0.02658168983827695</v>
+      </c>
+      <c r="H3">
+        <v>5.070238799103699</v>
+      </c>
+      <c r="I3">
+        <v>3.973168616333567E-07</v>
+      </c>
+      <c r="J3">
+        <v>0.1317394198534637</v>
+      </c>
+      <c r="K3">
+        <v>0.9859046236746742</v>
+      </c>
+      <c r="L3">
+        <v>0.01755643323087713</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>c08_01</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>d02_01</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>cy2</t>
+        </is>
+      </c>
+      <c r="F4">
+        <v>0.1334283798911123</v>
+      </c>
+      <c r="G4">
+        <v>0.02913044039469054</v>
+      </c>
+      <c r="H4">
+        <v>4.580376337716871</v>
+      </c>
+      <c r="I4">
+        <v>4.641399879101726E-06</v>
+      </c>
+      <c r="J4">
+        <v>0.1502409277190146</v>
+      </c>
+      <c r="K4">
+        <v>0.9859046236746742</v>
+      </c>
+      <c r="L4">
+        <v>0.01755643323087713</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>c08_01</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>d02_01</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>cy2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>cy1</t>
+        </is>
+      </c>
+      <c r="F5">
+        <v>0.09705959823642811</v>
+      </c>
+      <c r="G5">
+        <v>0.02502291176366248</v>
+      </c>
+      <c r="H5">
+        <v>3.878829096834972</v>
+      </c>
+      <c r="I5">
+        <v>0.0001049604600193987</v>
+      </c>
+      <c r="J5">
+        <v>0.1050416936599465</v>
+      </c>
+      <c r="K5">
+        <v>0.9859046236746742</v>
+      </c>
+      <c r="L5">
+        <v>0.01755643323087713</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>c08_01</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>d02_01</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>cx4</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>cx3</t>
+        </is>
+      </c>
+      <c r="F6">
+        <v>0.0460868595678619</v>
+      </c>
+      <c r="G6">
+        <v>0.021576349727336</v>
+      </c>
+      <c r="H6">
+        <v>2.135989643765947</v>
+      </c>
+      <c r="I6">
+        <v>0.03268025795670138</v>
+      </c>
+      <c r="J6">
+        <v>0.05107093349777686</v>
+      </c>
+      <c r="K6">
+        <v>0.9859046236746742</v>
+      </c>
+      <c r="L6">
+        <v>0.01755643323087713</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>d02_01</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="F7">
+        <v>0.3738652540073474</v>
+      </c>
+      <c r="G7">
+        <v>0.05669998927556743</v>
+      </c>
+      <c r="H7">
+        <v>6.593744704083208</v>
+      </c>
+      <c r="I7">
+        <v>4.288680521824517E-11</v>
+      </c>
+      <c r="J7">
+        <v>0.2135920107909275</v>
+      </c>
+      <c r="K7">
+        <v>0.9663658455093258</v>
+      </c>
+      <c r="L7">
+        <v>0.03162618800454443</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>d02_01</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>cy6</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="F8">
+        <v>0.1445871660385304</v>
+      </c>
+      <c r="G8">
+        <v>0.02241143982602432</v>
+      </c>
+      <c r="H8">
+        <v>6.451489380465182</v>
+      </c>
+      <c r="I8">
+        <v>1.107562930258155E-10</v>
+      </c>
+      <c r="J8">
+        <v>0.2506960587416687</v>
+      </c>
+      <c r="K8">
+        <v>0.9663658455093258</v>
+      </c>
+      <c r="L8">
+        <v>0.03162618800454443</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>d02_01</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>cx7</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>cx6</t>
+        </is>
+      </c>
+      <c r="F9">
+        <v>0.132535189284887</v>
+      </c>
+      <c r="G9">
+        <v>0.02662242095087698</v>
+      </c>
+      <c r="H9">
+        <v>4.978329714244905</v>
+      </c>
+      <c r="I9">
+        <v>6.413533424343143E-07</v>
+      </c>
+      <c r="J9">
+        <v>0.1295269165892845</v>
+      </c>
+      <c r="K9">
+        <v>0.9663658455093258</v>
+      </c>
+      <c r="L9">
+        <v>0.03162618800454443</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>d02_01</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>cy2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>cy1</t>
+        </is>
+      </c>
+      <c r="F10">
+        <v>0.1395556490886851</v>
+      </c>
+      <c r="G10">
+        <v>0.03672388470646757</v>
+      </c>
+      <c r="H10">
+        <v>3.800133079714942</v>
+      </c>
+      <c r="I10">
+        <v>0.0001446184030675646</v>
+      </c>
+      <c r="J10">
+        <v>0.1771536969028727</v>
+      </c>
+      <c r="K10">
+        <v>0.9663658455093258</v>
+      </c>
+      <c r="L10">
+        <v>0.03162618800454443</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>d02_01</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>cy2</t>
+        </is>
+      </c>
+      <c r="F11">
+        <v>0.1957604971276246</v>
+      </c>
+      <c r="G11">
+        <v>0.05440277350860574</v>
+      </c>
+      <c r="H11">
+        <v>3.598355092992787</v>
+      </c>
+      <c r="I11">
+        <v>0.000320236195015644</v>
+      </c>
+      <c r="J11">
+        <v>0.1962890504393438</v>
+      </c>
+      <c r="K11">
+        <v>0.9663658455093258</v>
+      </c>
+      <c r="L11">
+        <v>0.03162618800454443</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>d02_01</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>cy7</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>cy6</t>
+        </is>
+      </c>
+      <c r="F12">
+        <v>0.1399621013828685</v>
+      </c>
+      <c r="G12">
+        <v>0.05132272763421294</v>
+      </c>
+      <c r="H12">
+        <v>2.727097873293204</v>
+      </c>
+      <c r="I12">
+        <v>0.006389408405046648</v>
+      </c>
+      <c r="J12">
+        <v>0.1661019309612684</v>
+      </c>
+      <c r="K12">
+        <v>0.9663658455093258</v>
+      </c>
+      <c r="L12">
+        <v>0.03162618800454443</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>d02_01</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>cx3</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>cy2</t>
+        </is>
+      </c>
+      <c r="F13">
+        <v>0.116606489405303</v>
+      </c>
+      <c r="G13">
+        <v>0.05053954246661727</v>
+      </c>
+      <c r="H13">
+        <v>2.307232786729811</v>
+      </c>
+      <c r="I13">
+        <v>0.02104184622477612</v>
+      </c>
+      <c r="J13">
+        <v>0.0621270074393083</v>
+      </c>
+      <c r="K13">
+        <v>0.9663658455093258</v>
+      </c>
+      <c r="L13">
+        <v>0.03162618800454443</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>d02_01</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>cx4</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>cx3</t>
+        </is>
+      </c>
+      <c r="F14">
+        <v>0.04763396614065074</v>
+      </c>
+      <c r="G14">
+        <v>0.02159652491484777</v>
+      </c>
+      <c r="H14">
+        <v>2.205631060018459</v>
+      </c>
+      <c r="I14">
+        <v>0.02740984249621481</v>
+      </c>
+      <c r="J14">
+        <v>0.05271886979210558</v>
+      </c>
+      <c r="K14">
+        <v>0.9663658455093258</v>
+      </c>
+      <c r="L14">
+        <v>0.03162618800454443</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>c08_03</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>d02_01</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>cx7</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>cx6</t>
+        </is>
+      </c>
+      <c r="F15">
+        <v>0.1359388108623642</v>
+      </c>
+      <c r="G15">
+        <v>0.0265375986587931</v>
+      </c>
+      <c r="H15">
+        <v>5.122498557996754</v>
+      </c>
+      <c r="I15">
+        <v>3.015134026895794E-07</v>
+      </c>
+      <c r="J15">
+        <v>0.1328016872952305</v>
+      </c>
+      <c r="K15">
+        <v>0.9301120779968932</v>
+      </c>
+      <c r="L15">
+        <v>0.03848998947364267</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>c08_03</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>d02_01</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="F16">
+        <v>0.228319858196631</v>
+      </c>
+      <c r="G16">
+        <v>0.04691372296440844</v>
+      </c>
+      <c r="H16">
+        <v>4.866803224503162</v>
+      </c>
+      <c r="I16">
+        <v>1.13417853375708E-06</v>
+      </c>
+      <c r="J16">
+        <v>0.196079596510417</v>
+      </c>
+      <c r="K16">
+        <v>0.9301120779968932</v>
+      </c>
+      <c r="L16">
+        <v>0.03848998947364267</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>c08_03</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>d02_01</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>cy2</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>cy1</t>
+        </is>
+      </c>
+      <c r="F17">
+        <v>0.1235435529600293</v>
+      </c>
+      <c r="G17">
+        <v>0.03107774875314169</v>
+      </c>
+      <c r="H17">
+        <v>3.975305738564481</v>
+      </c>
+      <c r="I17">
+        <v>7.028889861704357E-05</v>
+      </c>
+      <c r="J17">
+        <v>0.1606733338346238</v>
+      </c>
+      <c r="K17">
+        <v>0.9301120779968932</v>
+      </c>
+      <c r="L17">
+        <v>0.03848998947364267</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>c08_03</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>d02_01</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>cy2</t>
+        </is>
+      </c>
+      <c r="F18">
+        <v>0.1784239459864455</v>
+      </c>
+      <c r="G18">
+        <v>0.05620086233196547</v>
+      </c>
+      <c r="H18">
+        <v>3.17475459597998</v>
+      </c>
+      <c r="I18">
+        <v>0.001499632696706721</v>
+      </c>
+      <c r="J18">
+        <v>0.1831538598843717</v>
+      </c>
+      <c r="K18">
+        <v>0.9301120779968932</v>
+      </c>
+      <c r="L18">
+        <v>0.03848998947364267</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>c08_03</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>d02_01</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>cx4</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>cx3</t>
+        </is>
+      </c>
+      <c r="F19">
+        <v>0.04732075349906603</v>
+      </c>
+      <c r="G19">
+        <v>0.02155330767271505</v>
+      </c>
+      <c r="H19">
+        <v>2.195521644177647</v>
+      </c>
+      <c r="I19">
+        <v>0.02812620003585109</v>
+      </c>
+      <c r="J19">
+        <v>0.0524900086008074</v>
+      </c>
+      <c r="K19">
+        <v>0.9301120779968932</v>
+      </c>
+      <c r="L19">
+        <v>0.03848998947364267</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>c08_03</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>d02_01</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>cx2</t>
+        </is>
+      </c>
+      <c r="F20">
+        <v>0.02943943911464745</v>
+      </c>
+      <c r="G20">
+        <v>0.01343053904533812</v>
+      </c>
+      <c r="H20">
+        <v>2.191977478734644</v>
+      </c>
+      <c r="I20">
+        <v>0.02838113285770993</v>
+      </c>
+      <c r="J20">
+        <v>0.05700260866036146</v>
+      </c>
+      <c r="K20">
+        <v>0.9301120779968932</v>
+      </c>
+      <c r="L20">
+        <v>0.03848998947364267</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>d02_01</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="F21">
+        <v>0.2399119840098733</v>
+      </c>
+      <c r="G21">
+        <v>0.03734059598516751</v>
+      </c>
+      <c r="H21">
+        <v>6.424963975003814</v>
+      </c>
+      <c r="I21">
+        <v>1.319007125744065E-10</v>
+      </c>
+      <c r="J21">
+        <v>0.1856628265168163</v>
+      </c>
+      <c r="K21">
+        <v>0.9825121119731685</v>
+      </c>
+      <c r="L21">
+        <v>0.02593005047250597</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>d02_01</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>cy6</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="F22">
+        <v>0.1393811810497956</v>
+      </c>
+      <c r="G22">
+        <v>0.02653423339552746</v>
+      </c>
+      <c r="H22">
+        <v>5.252881399365747</v>
+      </c>
+      <c r="I22">
+        <v>1.497379635839735E-07</v>
+      </c>
+      <c r="J22">
+        <v>0.1671451903890797</v>
+      </c>
+      <c r="K22">
+        <v>0.9825121119731685</v>
+      </c>
+      <c r="L22">
+        <v>0.02593005047250597</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>d02_01</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>cy7</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>cy6</t>
+        </is>
+      </c>
+      <c r="F23">
+        <v>0.182756676498252</v>
+      </c>
+      <c r="G23">
+        <v>0.03586788464777023</v>
+      </c>
+      <c r="H23">
+        <v>5.095273342516822</v>
+      </c>
+      <c r="I23">
+        <v>3.48238433645065E-07</v>
+      </c>
+      <c r="J23">
+        <v>0.1847809037696795</v>
+      </c>
+      <c r="K23">
+        <v>0.9825121119731685</v>
+      </c>
+      <c r="L23">
+        <v>0.02593005047250597</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>d02_01</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>cx7</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>cx6</t>
+        </is>
+      </c>
+      <c r="F24">
+        <v>0.1327683126334971</v>
+      </c>
+      <c r="G24">
+        <v>0.02663988729946273</v>
+      </c>
+      <c r="H24">
+        <v>4.983816603314786</v>
+      </c>
+      <c r="I24">
+        <v>6.234217229117434E-07</v>
+      </c>
+      <c r="J24">
+        <v>0.1297136274892255</v>
+      </c>
+      <c r="K24">
+        <v>0.9825121119731685</v>
+      </c>
+      <c r="L24">
+        <v>0.02593005047250597</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>d02_01</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>cy2</t>
+        </is>
+      </c>
+      <c r="F25">
+        <v>0.1303912086760091</v>
+      </c>
+      <c r="G25">
+        <v>0.03863066593339416</v>
+      </c>
+      <c r="H25">
+        <v>3.375329043015354</v>
+      </c>
+      <c r="I25">
+        <v>0.0007372748268452689</v>
+      </c>
+      <c r="J25">
+        <v>0.1391113983812611</v>
+      </c>
+      <c r="K25">
+        <v>0.9825121119731685</v>
+      </c>
+      <c r="L25">
+        <v>0.02593005047250597</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>d02_01</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>cx4</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>cx3</t>
+        </is>
+      </c>
+      <c r="F26">
+        <v>0.04679153992116696</v>
+      </c>
+      <c r="G26">
+        <v>0.02161389665015507</v>
+      </c>
+      <c r="H26">
+        <v>2.164882190312095</v>
+      </c>
+      <c r="I26">
+        <v>0.0303967084282466</v>
+      </c>
+      <c r="J26">
+        <v>0.05183957981289541</v>
+      </c>
+      <c r="K26">
+        <v>0.9825121119731685</v>
+      </c>
+      <c r="L26">
+        <v>0.02593005047250597</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>d02_01</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>cy2</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>cy1</t>
+        </is>
+      </c>
+      <c r="F27">
+        <v>0.06528834295539777</v>
+      </c>
+      <c r="G27">
+        <v>0.0323867420024637</v>
+      </c>
+      <c r="H27">
+        <v>2.015897213447133</v>
+      </c>
+      <c r="I27">
+        <v>0.04381072507036676</v>
+      </c>
+      <c r="J27">
+        <v>0.07320775699235738</v>
+      </c>
+      <c r="K27">
+        <v>0.9825121119731685</v>
+      </c>
+      <c r="L27">
+        <v>0.02593005047250597</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>c09_03</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>d02_01</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>cy6</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="F28">
+        <v>0.1280938255057338</v>
+      </c>
+      <c r="G28">
+        <v>0.05231591241589969</v>
+      </c>
+      <c r="H28">
+        <v>2.448467771859101</v>
+      </c>
+      <c r="I28">
+        <v>0.01434652639778866</v>
+      </c>
+      <c r="J28">
+        <v>0.1358643471548306</v>
+      </c>
+      <c r="K28">
+        <v>0.9931728092813081</v>
+      </c>
+      <c r="L28">
+        <v>0.04148096169751662</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>c09_03</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>d02_01</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>cy1</t>
+        </is>
+      </c>
+      <c r="F29">
+        <v>0.1008376269645487</v>
+      </c>
+      <c r="G29">
+        <v>0.04710907608695598</v>
+      </c>
+      <c r="H29">
+        <v>2.140513789283795</v>
+      </c>
+      <c r="I29">
+        <v>0.03231326762828668</v>
+      </c>
+      <c r="J29">
+        <v>0.1116537990826711</v>
+      </c>
+      <c r="K29">
+        <v>0.9931728092813081</v>
+      </c>
+      <c r="L29">
+        <v>0.04148096169751662</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>c09_04</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>d02_01</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>cy6</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="F30">
+        <v>0.1191636322626675</v>
+      </c>
+      <c r="G30">
+        <v>0.05344238527811745</v>
+      </c>
+      <c r="H30">
+        <v>2.229758863541226</v>
+      </c>
+      <c r="I30">
+        <v>0.02576345571093785</v>
+      </c>
+      <c r="J30">
+        <v>0.1216596123564951</v>
+      </c>
+      <c r="K30">
+        <v>0.9904893355365811</v>
+      </c>
+      <c r="L30">
+        <v>0.05213497082301357</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>vary</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>varx</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lhs</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>op</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>rhs</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>est</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>se</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>z</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>pvalue</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>std.all</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CFI</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>RMSEA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>c08_01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>d02_02</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>cx7</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>cx6</t>
+        </is>
+      </c>
+      <c r="F2">
+        <v>0.1781991903865062</v>
+      </c>
+      <c r="G2">
+        <v>0.02753768478827487</v>
+      </c>
+      <c r="H2">
+        <v>6.471102845304583</v>
+      </c>
+      <c r="I2">
+        <v>9.729017591553202E-11</v>
+      </c>
+      <c r="J2">
+        <v>0.1635206317751228</v>
+      </c>
+      <c r="K2">
+        <v>0.978708713630421</v>
+      </c>
+      <c r="L2">
+        <v>0.01973555333045582</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>c08_01</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>d02_02</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="F3">
+        <v>0.1649899780736376</v>
+      </c>
+      <c r="G3">
+        <v>0.02844272287489101</v>
+      </c>
+      <c r="H3">
+        <v>5.800780002651902</v>
+      </c>
+      <c r="I3">
+        <v>6.600715307669702E-09</v>
+      </c>
+      <c r="J3">
+        <v>0.1716377476798839</v>
+      </c>
+      <c r="K3">
+        <v>0.978708713630421</v>
+      </c>
+      <c r="L3">
+        <v>0.01973555333045582</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>c08_01</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>d02_02</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>cy2</t>
+        </is>
+      </c>
+      <c r="F4">
+        <v>0.1327003112436621</v>
+      </c>
+      <c r="G4">
+        <v>0.02908399363432011</v>
+      </c>
+      <c r="H4">
+        <v>4.562657828637096</v>
+      </c>
+      <c r="I4">
+        <v>5.051009707157661E-06</v>
+      </c>
+      <c r="J4">
+        <v>0.1497168448832922</v>
+      </c>
+      <c r="K4">
+        <v>0.978708713630421</v>
+      </c>
+      <c r="L4">
+        <v>0.01973555333045582</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>c08_01</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>d02_02</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>cy2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>cy1</t>
+        </is>
+      </c>
+      <c r="F5">
+        <v>0.09813438175695138</v>
+      </c>
+      <c r="G5">
+        <v>0.02505684974673005</v>
+      </c>
+      <c r="H5">
+        <v>3.916469258860365</v>
+      </c>
+      <c r="I5">
+        <v>8.985526753435558E-05</v>
+      </c>
+      <c r="J5">
+        <v>0.106172285398754</v>
+      </c>
+      <c r="K5">
+        <v>0.978708713630421</v>
+      </c>
+      <c r="L5">
+        <v>0.01973555333045582</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>c08_01</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>d02_02</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>cx6</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>cx4</t>
+        </is>
+      </c>
+      <c r="F6">
+        <v>0.07797637960838011</v>
+      </c>
+      <c r="G6">
+        <v>0.03002434003027712</v>
+      </c>
+      <c r="H6">
+        <v>2.597105532702708</v>
+      </c>
+      <c r="I6">
+        <v>0.009401303474139588</v>
+      </c>
+      <c r="J6">
+        <v>0.06996225024135208</v>
+      </c>
+      <c r="K6">
+        <v>0.978708713630421</v>
+      </c>
+      <c r="L6">
+        <v>0.01973555333045582</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>d02_02</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="F7">
+        <v>0.3756227939394048</v>
+      </c>
+      <c r="G7">
+        <v>0.05688838787931118</v>
+      </c>
+      <c r="H7">
+        <v>6.602802574337127</v>
+      </c>
+      <c r="I7">
+        <v>4.034572675948311E-11</v>
+      </c>
+      <c r="J7">
+        <v>0.214462666121638</v>
+      </c>
+      <c r="K7">
+        <v>0.9571902126591778</v>
+      </c>
+      <c r="L7">
+        <v>0.03358194191611959</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>d02_02</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>cx7</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>cx6</t>
+        </is>
+      </c>
+      <c r="F8">
+        <v>0.1772121531223048</v>
+      </c>
+      <c r="G8">
+        <v>0.0274523043314212</v>
+      </c>
+      <c r="H8">
+        <v>6.45527424521053</v>
+      </c>
+      <c r="I8">
+        <v>1.080231459837933E-10</v>
+      </c>
+      <c r="J8">
+        <v>0.1625210484928757</v>
+      </c>
+      <c r="K8">
+        <v>0.9571902126591778</v>
+      </c>
+      <c r="L8">
+        <v>0.03358194191611959</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>d02_02</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>cy6</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="F9">
+        <v>0.1446185612151388</v>
+      </c>
+      <c r="G9">
+        <v>0.02241370914231916</v>
+      </c>
+      <c r="H9">
+        <v>6.452236900945839</v>
+      </c>
+      <c r="I9">
+        <v>1.102111735207245E-10</v>
+      </c>
+      <c r="J9">
+        <v>0.2505870000020591</v>
+      </c>
+      <c r="K9">
+        <v>0.9571902126591778</v>
+      </c>
+      <c r="L9">
+        <v>0.03358194191611959</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>d02_02</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>cy2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>cy1</t>
+        </is>
+      </c>
+      <c r="F10">
+        <v>0.1385075307447546</v>
+      </c>
+      <c r="G10">
+        <v>0.03713991585860057</v>
+      </c>
+      <c r="H10">
+        <v>3.729344225551876</v>
+      </c>
+      <c r="I10">
+        <v>0.0001919787445547882</v>
+      </c>
+      <c r="J10">
+        <v>0.1757879834296848</v>
+      </c>
+      <c r="K10">
+        <v>0.9571902126591778</v>
+      </c>
+      <c r="L10">
+        <v>0.03358194191611959</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>d02_02</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>cy2</t>
+        </is>
+      </c>
+      <c r="F11">
+        <v>0.1960553671701373</v>
+      </c>
+      <c r="G11">
+        <v>0.05460467014393055</v>
+      </c>
+      <c r="H11">
+        <v>3.590450535702565</v>
+      </c>
+      <c r="I11">
+        <v>0.0003301068738390533</v>
+      </c>
+      <c r="J11">
+        <v>0.1965462251684541</v>
+      </c>
+      <c r="K11">
+        <v>0.9571902126591778</v>
+      </c>
+      <c r="L11">
+        <v>0.03358194191611959</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>d02_02</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>cx6</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="F12">
+        <v>-0.05662811510679095</v>
+      </c>
+      <c r="G12">
+        <v>0.0191945796484009</v>
+      </c>
+      <c r="H12">
+        <v>-2.950213869961391</v>
+      </c>
+      <c r="I12">
+        <v>0.003175540275686783</v>
+      </c>
+      <c r="J12">
+        <v>-0.06151901843835066</v>
+      </c>
+      <c r="K12">
+        <v>0.9571902126591778</v>
+      </c>
+      <c r="L12">
+        <v>0.03358194191611959</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>d02_02</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>cx7</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>cy6</t>
+        </is>
+      </c>
+      <c r="F13">
+        <v>-0.1172638301025949</v>
+      </c>
+      <c r="G13">
+        <v>0.04033215040752419</v>
+      </c>
+      <c r="H13">
+        <v>-2.907452960423323</v>
+      </c>
+      <c r="I13">
+        <v>0.003643851425742417</v>
+      </c>
+      <c r="J13">
+        <v>-0.06742531426103746</v>
+      </c>
+      <c r="K13">
+        <v>0.9571902126591778</v>
+      </c>
+      <c r="L13">
+        <v>0.03358194191611959</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>d02_02</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>cy7</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>cy6</t>
+        </is>
+      </c>
+      <c r="F14">
+        <v>0.1408006381131909</v>
+      </c>
+      <c r="G14">
+        <v>0.05112785740012633</v>
+      </c>
+      <c r="H14">
+        <v>2.753892794906032</v>
+      </c>
+      <c r="I14">
+        <v>0.005889105508147363</v>
+      </c>
+      <c r="J14">
+        <v>0.1667071004711166</v>
+      </c>
+      <c r="K14">
+        <v>0.9571902126591778</v>
+      </c>
+      <c r="L14">
+        <v>0.03358194191611959</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>d02_02</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>cy7</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>cx6</t>
+        </is>
+      </c>
+      <c r="F15">
+        <v>-0.03383231679201008</v>
+      </c>
+      <c r="G15">
+        <v>0.01255263830460017</v>
+      </c>
+      <c r="H15">
+        <v>-2.695235533044199</v>
+      </c>
+      <c r="I15">
+        <v>0.007033889076681898</v>
+      </c>
+      <c r="J15">
+        <v>-0.06389081419018948</v>
+      </c>
+      <c r="K15">
+        <v>0.9571902126591778</v>
+      </c>
+      <c r="L15">
+        <v>0.03358194191611959</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>d02_02</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>cx6</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>cx4</t>
+        </is>
+      </c>
+      <c r="F16">
+        <v>0.07438077652558726</v>
+      </c>
+      <c r="G16">
+        <v>0.02995498642965909</v>
+      </c>
+      <c r="H16">
+        <v>2.483084968182166</v>
+      </c>
+      <c r="I16">
+        <v>0.01302500152048136</v>
+      </c>
+      <c r="J16">
+        <v>0.06679509140035834</v>
+      </c>
+      <c r="K16">
+        <v>0.9571902126591778</v>
+      </c>
+      <c r="L16">
+        <v>0.03358194191611959</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>d02_02</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>cx3</t>
+        </is>
+      </c>
+      <c r="F17">
+        <v>-0.04460567373337008</v>
+      </c>
+      <c r="G17">
+        <v>0.01882707915935962</v>
+      </c>
+      <c r="H17">
+        <v>-2.369229626954374</v>
+      </c>
+      <c r="I17">
+        <v>0.01782518264455191</v>
+      </c>
+      <c r="J17">
+        <v>-0.04160959887415935</v>
+      </c>
+      <c r="K17">
+        <v>0.9571902126591778</v>
+      </c>
+      <c r="L17">
+        <v>0.03358194191611959</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>c08_03</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>d02_02</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>cx7</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>cx6</t>
+        </is>
+      </c>
+      <c r="F18">
+        <v>0.1786266310393702</v>
+      </c>
+      <c r="G18">
+        <v>0.02759729322951511</v>
+      </c>
+      <c r="H18">
+        <v>6.472614163780754</v>
+      </c>
+      <c r="I18">
+        <v>9.632161734884903E-11</v>
+      </c>
+      <c r="J18">
+        <v>0.1638811674355178</v>
+      </c>
+      <c r="K18">
+        <v>0.9096769979092209</v>
+      </c>
+      <c r="L18">
+        <v>0.03972574308041607</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>c08_03</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>d02_02</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="F19">
+        <v>0.227588165158086</v>
+      </c>
+      <c r="G19">
+        <v>0.0470713568808213</v>
+      </c>
+      <c r="H19">
+        <v>4.834960796526651</v>
+      </c>
+      <c r="I19">
+        <v>1.331718777475288E-06</v>
+      </c>
+      <c r="J19">
+        <v>0.1953745190416283</v>
+      </c>
+      <c r="K19">
+        <v>0.9096769979092209</v>
+      </c>
+      <c r="L19">
+        <v>0.03972574308041607</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>c08_03</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>d02_02</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>cy2</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>cy1</t>
+        </is>
+      </c>
+      <c r="F20">
+        <v>0.1233166749553693</v>
+      </c>
+      <c r="G20">
+        <v>0.03133651851407374</v>
+      </c>
+      <c r="H20">
+        <v>3.93523852689589</v>
+      </c>
+      <c r="I20">
+        <v>8.311410815431408E-05</v>
+      </c>
+      <c r="J20">
+        <v>0.1602655368331851</v>
+      </c>
+      <c r="K20">
+        <v>0.9096769979092209</v>
+      </c>
+      <c r="L20">
+        <v>0.03972574308041607</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>c08_03</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>d02_02</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>cy2</t>
+        </is>
+      </c>
+      <c r="F21">
+        <v>0.1763824834953296</v>
+      </c>
+      <c r="G21">
+        <v>0.0565691658375861</v>
+      </c>
+      <c r="H21">
+        <v>3.117996896078257</v>
+      </c>
+      <c r="I21">
+        <v>0.001820847211968291</v>
+      </c>
+      <c r="J21">
+        <v>0.1811998611038949</v>
+      </c>
+      <c r="K21">
+        <v>0.9096769979092209</v>
+      </c>
+      <c r="L21">
+        <v>0.03972574308041607</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>c08_03</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>d02_02</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>cx6</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>cx4</t>
+        </is>
+      </c>
+      <c r="F22">
+        <v>0.07693007281540248</v>
+      </c>
+      <c r="G22">
+        <v>0.02997230173041763</v>
+      </c>
+      <c r="H22">
+        <v>2.56670553724372</v>
+      </c>
+      <c r="I22">
+        <v>0.01026697579702973</v>
+      </c>
+      <c r="J22">
+        <v>0.06909406215270442</v>
+      </c>
+      <c r="K22">
+        <v>0.9096769979092209</v>
+      </c>
+      <c r="L22">
+        <v>0.03972574308041607</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>d02_02</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>cx7</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>cx6</t>
+        </is>
+      </c>
+      <c r="F23">
+        <v>0.1810183284464762</v>
+      </c>
+      <c r="G23">
+        <v>0.02754281570101175</v>
+      </c>
+      <c r="H23">
+        <v>6.572252104196694</v>
+      </c>
+      <c r="I23">
+        <v>4.955991173005714E-11</v>
+      </c>
+      <c r="J23">
+        <v>0.1660379901192595</v>
+      </c>
+      <c r="K23">
+        <v>0.9807264737222907</v>
+      </c>
+      <c r="L23">
+        <v>0.02597666665015773</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>d02_02</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="F24">
+        <v>0.2377276420207849</v>
+      </c>
+      <c r="G24">
+        <v>0.03723788478239034</v>
+      </c>
+      <c r="H24">
+        <v>6.38402646686327</v>
+      </c>
+      <c r="I24">
+        <v>1.724913545331219E-10</v>
+      </c>
+      <c r="J24">
+        <v>0.184149527705687</v>
+      </c>
+      <c r="K24">
+        <v>0.9807264737222907</v>
+      </c>
+      <c r="L24">
+        <v>0.02597666665015773</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>d02_02</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>cy6</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="F25">
+        <v>0.139955338570856</v>
+      </c>
+      <c r="G25">
+        <v>0.02677121571757307</v>
+      </c>
+      <c r="H25">
+        <v>5.227829025298504</v>
+      </c>
+      <c r="I25">
+        <v>1.715120006018367E-07</v>
+      </c>
+      <c r="J25">
+        <v>0.1679438105175267</v>
+      </c>
+      <c r="K25">
+        <v>0.9807264737222907</v>
+      </c>
+      <c r="L25">
+        <v>0.02597666665015773</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>d02_02</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>cy7</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>cy6</t>
+        </is>
+      </c>
+      <c r="F26">
+        <v>0.183041390468674</v>
+      </c>
+      <c r="G26">
+        <v>0.03573824632893381</v>
+      </c>
+      <c r="H26">
+        <v>5.121722783596213</v>
+      </c>
+      <c r="I26">
+        <v>3.027567627711392E-07</v>
+      </c>
+      <c r="J26">
+        <v>0.1849526542606978</v>
+      </c>
+      <c r="K26">
+        <v>0.9807264737222907</v>
+      </c>
+      <c r="L26">
+        <v>0.02597666665015773</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>d02_02</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>cy2</t>
+        </is>
+      </c>
+      <c r="F27">
+        <v>0.130989989593821</v>
+      </c>
+      <c r="G27">
+        <v>0.03864079648512372</v>
+      </c>
+      <c r="H27">
+        <v>3.38994020592331</v>
+      </c>
+      <c r="I27">
+        <v>0.0006990786996665665</v>
+      </c>
+      <c r="J27">
+        <v>0.1398862864851792</v>
+      </c>
+      <c r="K27">
+        <v>0.9807264737222907</v>
+      </c>
+      <c r="L27">
+        <v>0.02597666665015773</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>d02_02</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>cx6</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>cx4</t>
+        </is>
+      </c>
+      <c r="F28">
+        <v>0.07813824084300713</v>
+      </c>
+      <c r="G28">
+        <v>0.03011487237554069</v>
+      </c>
+      <c r="H28">
+        <v>2.594672820412517</v>
+      </c>
+      <c r="I28">
+        <v>0.009468100051133854</v>
+      </c>
+      <c r="J28">
+        <v>0.0700791225144831</v>
+      </c>
+      <c r="K28">
+        <v>0.9807264737222907</v>
+      </c>
+      <c r="L28">
+        <v>0.02597666665015773</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>d02_02</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>cy2</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>cy1</t>
+        </is>
+      </c>
+      <c r="F29">
+        <v>0.06838848253818743</v>
+      </c>
+      <c r="G29">
+        <v>0.03247662066039066</v>
+      </c>
+      <c r="H29">
+        <v>2.105775821115398</v>
+      </c>
+      <c r="I29">
+        <v>0.03522383006478202</v>
+      </c>
+      <c r="J29">
+        <v>0.07669453855361218</v>
+      </c>
+      <c r="K29">
+        <v>0.9807264737222907</v>
+      </c>
+      <c r="L29">
+        <v>0.02597666665015773</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>c09_01</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>d02_02</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>cx1</t>
+        </is>
+      </c>
+      <c r="F30">
+        <v>-0.1078104459664428</v>
+      </c>
+      <c r="G30">
+        <v>0.04652893971263152</v>
+      </c>
+      <c r="H30">
+        <v>-2.317062168884429</v>
+      </c>
+      <c r="I30">
+        <v>0.02050034543683443</v>
+      </c>
+      <c r="J30">
+        <v>-0.07541514573494527</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>c09_03</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>d02_02</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>cx6</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="F31">
+        <v>-0.08613475618823144</v>
+      </c>
+      <c r="G31">
+        <v>0.02931876448742595</v>
+      </c>
+      <c r="H31">
+        <v>-2.937871281212152</v>
+      </c>
+      <c r="I31">
+        <v>0.003304742012266271</v>
+      </c>
+      <c r="J31">
+        <v>-0.09313811409014582</v>
+      </c>
+      <c r="K31">
+        <v>0.9952289375568415</v>
+      </c>
+      <c r="L31">
+        <v>0.03360150837342493</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>c09_03</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>d02_02</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>cx1</t>
+        </is>
+      </c>
+      <c r="F32">
+        <v>-0.09624271549417467</v>
+      </c>
+      <c r="G32">
+        <v>0.03744003500550024</v>
+      </c>
+      <c r="H32">
+        <v>-2.570582946304293</v>
+      </c>
+      <c r="I32">
+        <v>0.01015275104970925</v>
+      </c>
+      <c r="J32">
+        <v>-0.08226688408785406</v>
+      </c>
+      <c r="K32">
+        <v>0.9952289375568415</v>
+      </c>
+      <c r="L32">
+        <v>0.03360150837342493</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>c09_03</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>d02_02</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>cy6</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="F33">
+        <v>0.1249092291387887</v>
+      </c>
+      <c r="G33">
+        <v>0.05192056994306374</v>
+      </c>
+      <c r="H33">
+        <v>2.4057753848959</v>
+      </c>
+      <c r="I33">
+        <v>0.01613818368469633</v>
+      </c>
+      <c r="J33">
+        <v>0.1325757778235789</v>
+      </c>
+      <c r="K33">
+        <v>0.9952289375568415</v>
+      </c>
+      <c r="L33">
+        <v>0.03360150837342493</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>c09_03</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>d02_02</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>cy1</t>
+        </is>
+      </c>
+      <c r="F34">
+        <v>0.1001465807462833</v>
+      </c>
+      <c r="G34">
+        <v>0.0465293330869198</v>
+      </c>
+      <c r="H34">
+        <v>2.152332176332787</v>
+      </c>
+      <c r="I34">
+        <v>0.031371201331029</v>
+      </c>
+      <c r="J34">
+        <v>0.1109121311731604</v>
+      </c>
+      <c r="K34">
+        <v>0.9952289375568415</v>
+      </c>
+      <c r="L34">
+        <v>0.03360150837342493</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>c09_04</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>d02_02</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>cy6</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="F35">
+        <v>0.1068904582410251</v>
+      </c>
+      <c r="G35">
+        <v>0.05321262582040942</v>
+      </c>
+      <c r="H35">
+        <v>2.008742410152363</v>
+      </c>
+      <c r="I35">
+        <v>0.04456445855645663</v>
+      </c>
+      <c r="J35">
+        <v>0.1093555607701556</v>
+      </c>
+      <c r="K35">
+        <v>0.9964998709470565</v>
+      </c>
+      <c r="L35">
+        <v>0.03033694472747023</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>vary</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>varx</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lhs</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>op</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>rhs</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>est</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>se</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>z</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>pvalue</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>std.all</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CFI</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>RMSEA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>c08_01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>d02_03</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>cx7</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>cx6</t>
+        </is>
+      </c>
+      <c r="F2">
+        <v>0.2040819841859971</v>
+      </c>
+      <c r="G2">
+        <v>0.02806640972485868</v>
+      </c>
+      <c r="H2">
+        <v>7.271396170249727</v>
+      </c>
+      <c r="I2">
+        <v>3.557154570899002E-13</v>
+      </c>
+      <c r="J2">
+        <v>0.1882547849995</v>
+      </c>
+      <c r="K2">
+        <v>0.9860422040595744</v>
+      </c>
+      <c r="L2">
+        <v>0.01606828407938981</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>c08_01</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>d02_03</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="F3">
+        <v>0.1649537285272669</v>
+      </c>
+      <c r="G3">
+        <v>0.02837549715103057</v>
+      </c>
+      <c r="H3">
+        <v>5.813245408504709</v>
+      </c>
+      <c r="I3">
+        <v>6.127313101345067E-09</v>
+      </c>
+      <c r="J3">
+        <v>0.1716938383251774</v>
+      </c>
+      <c r="K3">
+        <v>0.9860422040595744</v>
+      </c>
+      <c r="L3">
+        <v>0.01606828407938981</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>c08_01</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>d02_03</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>cy2</t>
+        </is>
+      </c>
+      <c r="F4">
+        <v>0.1333391677657156</v>
+      </c>
+      <c r="G4">
+        <v>0.02908933720630954</v>
+      </c>
+      <c r="H4">
+        <v>4.583781569859696</v>
+      </c>
+      <c r="I4">
+        <v>4.566412620699012E-06</v>
+      </c>
+      <c r="J4">
+        <v>0.150371101733334</v>
+      </c>
+      <c r="K4">
+        <v>0.9860422040595744</v>
+      </c>
+      <c r="L4">
+        <v>0.01606828407938981</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>c08_01</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>d02_03</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>cy2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>cy1</t>
+        </is>
+      </c>
+      <c r="F5">
+        <v>0.09882293784362974</v>
+      </c>
+      <c r="G5">
+        <v>0.02517378476212769</v>
+      </c>
+      <c r="H5">
+        <v>3.925628934124454</v>
+      </c>
+      <c r="I5">
+        <v>8.65034193360259E-05</v>
+      </c>
+      <c r="J5">
+        <v>0.1068814990307262</v>
+      </c>
+      <c r="K5">
+        <v>0.9860422040595744</v>
+      </c>
+      <c r="L5">
+        <v>0.01606828407938981</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>c08_01</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>d02_03</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>cx4</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="F6">
+        <v>-0.039804892112037</v>
+      </c>
+      <c r="G6">
+        <v>0.02007963572997698</v>
+      </c>
+      <c r="H6">
+        <v>-1.982351305935899</v>
+      </c>
+      <c r="I6">
+        <v>0.04743993548255077</v>
+      </c>
+      <c r="J6">
+        <v>-0.03915933817950943</v>
+      </c>
+      <c r="K6">
+        <v>0.9860422040595744</v>
+      </c>
+      <c r="L6">
+        <v>0.01606828407938981</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>d02_03</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>cx7</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>cx6</t>
+        </is>
+      </c>
+      <c r="F7">
+        <v>0.2041597262475643</v>
+      </c>
+      <c r="G7">
+        <v>0.02792010317446557</v>
+      </c>
+      <c r="H7">
+        <v>7.312284090492882</v>
+      </c>
+      <c r="I7">
+        <v>2.62678767626312E-13</v>
+      </c>
+      <c r="J7">
+        <v>0.188113821169256</v>
+      </c>
+      <c r="K7">
+        <v>0.9594840781300557</v>
+      </c>
+      <c r="L7">
+        <v>0.03280646968803706</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>d02_03</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="F8">
+        <v>0.3741076585163514</v>
+      </c>
+      <c r="G8">
+        <v>0.05672041304212197</v>
+      </c>
+      <c r="H8">
+        <v>6.595644115611956</v>
+      </c>
+      <c r="I8">
+        <v>4.234124162394437E-11</v>
+      </c>
+      <c r="J8">
+        <v>0.213840092975912</v>
+      </c>
+      <c r="K8">
+        <v>0.9594840781300557</v>
+      </c>
+      <c r="L8">
+        <v>0.03280646968803706</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>d02_03</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>cy6</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="F9">
+        <v>0.1445798116402447</v>
+      </c>
+      <c r="G9">
+        <v>0.02245629470208586</v>
+      </c>
+      <c r="H9">
+        <v>6.438275483925465</v>
+      </c>
+      <c r="I9">
+        <v>1.208384503570414E-10</v>
+      </c>
+      <c r="J9">
+        <v>0.250574804358525</v>
+      </c>
+      <c r="K9">
+        <v>0.9594840781300557</v>
+      </c>
+      <c r="L9">
+        <v>0.03280646968803706</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>d02_03</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>cy2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>cy1</t>
+        </is>
+      </c>
+      <c r="F10">
+        <v>0.1380914418780592</v>
+      </c>
+      <c r="G10">
+        <v>0.03691885442200127</v>
+      </c>
+      <c r="H10">
+        <v>3.740404301271211</v>
+      </c>
+      <c r="I10">
+        <v>0.0001837244890456891</v>
+      </c>
+      <c r="J10">
+        <v>0.1753825122692176</v>
+      </c>
+      <c r="K10">
+        <v>0.9594840781300557</v>
+      </c>
+      <c r="L10">
+        <v>0.03280646968803706</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>d02_03</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>cy2</t>
+        </is>
+      </c>
+      <c r="F11">
+        <v>0.1970835501628817</v>
+      </c>
+      <c r="G11">
+        <v>0.05450330152469411</v>
+      </c>
+      <c r="H11">
+        <v>3.615992878405504</v>
+      </c>
+      <c r="I11">
+        <v>0.0002991986008822334</v>
+      </c>
+      <c r="J11">
+        <v>0.1974081495549375</v>
+      </c>
+      <c r="K11">
+        <v>0.9594840781300557</v>
+      </c>
+      <c r="L11">
+        <v>0.03280646968803706</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>d02_03</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>cx7</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>cy6</t>
+        </is>
+      </c>
+      <c r="F12">
+        <v>-0.1128678183704475</v>
+      </c>
+      <c r="G12">
+        <v>0.03601256858808123</v>
+      </c>
+      <c r="H12">
+        <v>-3.134122968607198</v>
+      </c>
+      <c r="I12">
+        <v>0.001723686056364304</v>
+      </c>
+      <c r="J12">
+        <v>-0.06652471733477079</v>
+      </c>
+      <c r="K12">
+        <v>0.9594840781300557</v>
+      </c>
+      <c r="L12">
+        <v>0.03280646968803706</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>d02_03</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>cx6</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="F13">
+        <v>-0.0551282006451355</v>
+      </c>
+      <c r="G13">
+        <v>0.0186438770241596</v>
+      </c>
+      <c r="H13">
+        <v>-2.956906472494847</v>
+      </c>
+      <c r="I13">
+        <v>0.00310742358220617</v>
+      </c>
+      <c r="J13">
+        <v>-0.06111753635439686</v>
+      </c>
+      <c r="K13">
+        <v>0.9594840781300557</v>
+      </c>
+      <c r="L13">
+        <v>0.03280646968803706</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>d02_03</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>cy7</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>cy6</t>
+        </is>
+      </c>
+      <c r="F14">
+        <v>0.1408765623232463</v>
+      </c>
+      <c r="G14">
+        <v>0.05128689466696306</v>
+      </c>
+      <c r="H14">
+        <v>2.746833537847111</v>
+      </c>
+      <c r="I14">
+        <v>0.006017366680830305</v>
+      </c>
+      <c r="J14">
+        <v>0.1668066993284442</v>
+      </c>
+      <c r="K14">
+        <v>0.9594840781300557</v>
+      </c>
+      <c r="L14">
+        <v>0.03280646968803706</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>d02_03</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>cy7</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>cx6</t>
+        </is>
+      </c>
+      <c r="F15">
+        <v>-0.03186093640440562</v>
+      </c>
+      <c r="G15">
+        <v>0.01288090062308191</v>
+      </c>
+      <c r="H15">
+        <v>-2.473502229130816</v>
+      </c>
+      <c r="I15">
+        <v>0.0133795969428645</v>
+      </c>
+      <c r="J15">
+        <v>-0.05897541458628121</v>
+      </c>
+      <c r="K15">
+        <v>0.9594840781300557</v>
+      </c>
+      <c r="L15">
+        <v>0.03280646968803706</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>d02_03</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>cx4</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="F16">
+        <v>-0.06431858466092619</v>
+      </c>
+      <c r="G16">
+        <v>0.02741854419539456</v>
+      </c>
+      <c r="H16">
+        <v>-2.345805969951156</v>
+      </c>
+      <c r="I16">
+        <v>0.01898598824862074</v>
+      </c>
+      <c r="J16">
+        <v>-0.04542468862474308</v>
+      </c>
+      <c r="K16">
+        <v>0.9594840781300557</v>
+      </c>
+      <c r="L16">
+        <v>0.03280646968803706</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>c08_03</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>d02_03</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>cx7</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>cx6</t>
+        </is>
+      </c>
+      <c r="F17">
+        <v>0.2041034062896511</v>
+      </c>
+      <c r="G17">
+        <v>0.02798843264788492</v>
+      </c>
+      <c r="H17">
+        <v>7.292420009988487</v>
+      </c>
+      <c r="I17">
+        <v>3.044231533522179E-13</v>
+      </c>
+      <c r="J17">
+        <v>0.1881594626220557</v>
+      </c>
+      <c r="K17">
+        <v>0.920419392880239</v>
+      </c>
+      <c r="L17">
+        <v>0.03747030423330186</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>c08_03</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>d02_03</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="F18">
+        <v>0.2279899071596499</v>
+      </c>
+      <c r="G18">
+        <v>0.04695561163331387</v>
+      </c>
+      <c r="H18">
+        <v>4.855434722905336</v>
+      </c>
+      <c r="I18">
+        <v>1.201229213210198E-06</v>
+      </c>
+      <c r="J18">
+        <v>0.1957961368465397</v>
+      </c>
+      <c r="K18">
+        <v>0.920419392880239</v>
+      </c>
+      <c r="L18">
+        <v>0.03747030423330186</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>c08_03</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>d02_03</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>cy2</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>cy1</t>
+        </is>
+      </c>
+      <c r="F19">
+        <v>0.1232342771464884</v>
+      </c>
+      <c r="G19">
+        <v>0.03137447868909206</v>
+      </c>
+      <c r="H19">
+        <v>3.927850988941952</v>
+      </c>
+      <c r="I19">
+        <v>8.570828492548976E-05</v>
+      </c>
+      <c r="J19">
+        <v>0.1601629914719515</v>
+      </c>
+      <c r="K19">
+        <v>0.920419392880239</v>
+      </c>
+      <c r="L19">
+        <v>0.03747030423330186</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>c08_03</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>d02_03</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>cy2</t>
+        </is>
+      </c>
+      <c r="F20">
+        <v>0.1797270092652387</v>
+      </c>
+      <c r="G20">
+        <v>0.05623355870993565</v>
+      </c>
+      <c r="H20">
+        <v>3.196081012626426</v>
+      </c>
+      <c r="I20">
+        <v>0.0013930799129791</v>
+      </c>
+      <c r="J20">
+        <v>0.1845576321998793</v>
+      </c>
+      <c r="K20">
+        <v>0.920419392880239</v>
+      </c>
+      <c r="L20">
+        <v>0.03747030423330186</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>d02_03</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>cx7</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>cx6</t>
+        </is>
+      </c>
+      <c r="F21">
+        <v>0.2057698748886836</v>
+      </c>
+      <c r="G21">
+        <v>0.02808627548197101</v>
+      </c>
+      <c r="H21">
+        <v>7.326349662160449</v>
+      </c>
+      <c r="I21">
+        <v>2.364775042451583E-13</v>
+      </c>
+      <c r="J21">
+        <v>0.1897870572103356</v>
+      </c>
+      <c r="K21">
+        <v>0.9819750739038122</v>
+      </c>
+      <c r="L21">
+        <v>0.02516886611212458</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>d02_03</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="F22">
+        <v>0.2356683717184588</v>
+      </c>
+      <c r="G22">
+        <v>0.03725726672430673</v>
+      </c>
+      <c r="H22">
+        <v>6.325433732494074</v>
+      </c>
+      <c r="I22">
+        <v>2.525222253524362E-10</v>
+      </c>
+      <c r="J22">
+        <v>0.1826252520570354</v>
+      </c>
+      <c r="K22">
+        <v>0.9819750739038122</v>
+      </c>
+      <c r="L22">
+        <v>0.02516886611212458</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>d02_03</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>cy6</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="F23">
+        <v>0.1375473688416474</v>
+      </c>
+      <c r="G23">
+        <v>0.0267511802035614</v>
+      </c>
+      <c r="H23">
+        <v>5.141730861778415</v>
+      </c>
+      <c r="I23">
+        <v>2.72218886543385E-07</v>
+      </c>
+      <c r="J23">
+        <v>0.1648531291483528</v>
+      </c>
+      <c r="K23">
+        <v>0.9819750739038122</v>
+      </c>
+      <c r="L23">
+        <v>0.02516886611212458</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>d02_03</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>cy7</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>cy6</t>
+        </is>
+      </c>
+      <c r="F24">
+        <v>0.1826592557548703</v>
+      </c>
+      <c r="G24">
+        <v>0.03567715830714407</v>
+      </c>
+      <c r="H24">
+        <v>5.119781519098571</v>
+      </c>
+      <c r="I24">
+        <v>3.058898265795307E-07</v>
+      </c>
+      <c r="J24">
+        <v>0.184494854968487</v>
+      </c>
+      <c r="K24">
+        <v>0.9819750739038122</v>
+      </c>
+      <c r="L24">
+        <v>0.02516886611212458</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>d02_03</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>cy2</t>
+        </is>
+      </c>
+      <c r="F25">
+        <v>0.1294954189492487</v>
+      </c>
+      <c r="G25">
+        <v>0.03874425738884532</v>
+      </c>
+      <c r="H25">
+        <v>3.342312581955206</v>
+      </c>
+      <c r="I25">
+        <v>0.0008308344098391096</v>
+      </c>
+      <c r="J25">
+        <v>0.1383822095200066</v>
+      </c>
+      <c r="K25">
+        <v>0.9819750739038122</v>
+      </c>
+      <c r="L25">
+        <v>0.02516886611212458</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>d02_03</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>cy2</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>cy1</t>
+        </is>
+      </c>
+      <c r="F26">
+        <v>0.06718209338142603</v>
+      </c>
+      <c r="G26">
+        <v>0.0325361577403453</v>
+      </c>
+      <c r="H26">
+        <v>2.064844101063577</v>
+      </c>
+      <c r="I26">
+        <v>0.03893775356894857</v>
+      </c>
+      <c r="J26">
+        <v>0.07537440437457256</v>
+      </c>
+      <c r="K26">
+        <v>0.9819750739038122</v>
+      </c>
+      <c r="L26">
+        <v>0.02516886611212458</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>c09_01</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>d02_03</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>cx3</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>cy1</t>
+        </is>
+      </c>
+      <c r="F27">
+        <v>-0.05419804056818496</v>
+      </c>
+      <c r="G27">
+        <v>0.02539305671303047</v>
+      </c>
+      <c r="H27">
+        <v>-2.134364569838226</v>
+      </c>
+      <c r="I27">
+        <v>0.03281294947036173</v>
+      </c>
+      <c r="J27">
+        <v>-0.07218803353314959</v>
+      </c>
+      <c r="K27">
+        <v>0.9998599483876077</v>
+      </c>
+      <c r="L27">
+        <v>0.005004396678108493</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>c09_03</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>d02_03</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>cy6</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="F28">
+        <v>0.1238671902584495</v>
+      </c>
+      <c r="G28">
+        <v>0.05203423350662399</v>
+      </c>
+      <c r="H28">
+        <v>2.380494184519526</v>
+      </c>
+      <c r="I28">
+        <v>0.01728943393789306</v>
+      </c>
+      <c r="J28">
+        <v>0.131619647431219</v>
+      </c>
+      <c r="K28">
+        <v>0.9939158276246346</v>
+      </c>
+      <c r="L28">
+        <v>0.03757940740670623</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>c09_03</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>d02_03</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>cy1</t>
+        </is>
+      </c>
+      <c r="F29">
+        <v>0.1014033369515473</v>
+      </c>
+      <c r="G29">
+        <v>0.04678181910800785</v>
+      </c>
+      <c r="H29">
+        <v>2.167580031837403</v>
+      </c>
+      <c r="I29">
+        <v>0.03019065439100754</v>
+      </c>
+      <c r="J29">
+        <v>0.1124269546310589</v>
+      </c>
+      <c r="K29">
+        <v>0.9939158276246346</v>
+      </c>
+      <c r="L29">
+        <v>0.03757940740670623</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>c09_04</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>d02_03</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>cy6</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="F30">
+        <v>0.1075937249274885</v>
+      </c>
+      <c r="G30">
+        <v>0.05307678435616223</v>
+      </c>
+      <c r="H30">
+        <v>2.027133448882285</v>
+      </c>
+      <c r="I30">
+        <v>0.04264876693514608</v>
+      </c>
+      <c r="J30">
+        <v>0.1100717524287205</v>
+      </c>
+      <c r="K30">
+        <v>0.9969030942919467</v>
+      </c>
+      <c r="L30">
+        <v>0.0283626029148738</v>
       </c>
     </row>
   </sheetData>
